--- a/inspection/lucene.xlsx
+++ b/inspection/lucene.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7B209-51AB-4AD2-9AF6-49AB5A990326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,12 +297,23 @@
   <si>
     <t>f_score</t>
   </si>
+  <si>
+    <t>finally {
+      IOUtils.closeWhileHandlingException(out, aff1, aff2);
+      if (success) {
+        Files.delete(aff);
+      } else {
+        IOUtils.deleteFilesIgnoringExceptions(aff);
+      }
+closeWhileHandlingException和deleteFilesIgnoringExceptions可能包含exception throw，但没找到源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +328,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +350,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,10 +365,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -355,9 +389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,21 +672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="53.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="99" customWidth="1"/>
-    <col min="7" max="7" width="92.109375" customWidth="1"/>
+    <col min="7" max="7" width="92.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +700,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -678,7 +716,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -692,7 +730,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,7 +744,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,7 +758,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -734,7 +772,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,7 +786,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -762,7 +800,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -776,7 +814,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -790,7 +828,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -799,10 +837,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -814,7 +856,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -826,7 +868,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -838,7 +880,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -850,7 +892,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -862,7 +904,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -874,7 +916,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -886,7 +928,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -898,7 +940,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -912,7 +954,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -926,7 +968,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -940,7 +982,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -954,7 +996,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -968,7 +1010,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -982,7 +1024,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -996,7 +1038,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1052,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1066,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1040,7 +1082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1056,7 +1098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1070,7 +1112,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1084,7 +1126,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1140,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1112,7 +1154,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1168,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -1145,7 +1187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -1161,7 +1203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1217,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1266,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1238,7 +1280,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1294,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1308,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1322,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -1294,7 +1336,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -1308,7 +1350,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1364,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1378,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -1350,7 +1392,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -1364,7 +1406,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1420,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -1392,7 +1434,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1448,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1462,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1476,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1490,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -1462,7 +1504,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1518,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -1490,7 +1532,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1502,7 +1544,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
@@ -1516,7 +1558,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -1530,7 +1572,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -1542,7 +1584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
@@ -1554,7 +1596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>76</v>
       </c>
@@ -1572,10 +1614,10 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>77</v>
       </c>
@@ -1585,10 +1627,10 @@
       </c>
       <c r="C70">
         <f>COUNTIFS(C3:C65,1,E3:E65,1)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>78</v>
       </c>
@@ -1598,7 +1640,7 @@
       </c>
       <c r="C72">
         <f>C70/C68</f>
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="D72">
         <f>B70/D68</f>
@@ -1609,26 +1651,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B74">
         <f>SUM(B70:C70)/SUM(B68:C68)</f>
-        <v>0.83606557377049184</v>
+        <v>0.85245901639344257</v>
       </c>
       <c r="C74">
         <f>SUM(B70:C70)/SUM(D68:E68)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B76">
         <f>2*B74*C74/SUM(B74:C74)</f>
-        <v>0.9107142857142857</v>
+        <v>0.92035398230088483</v>
       </c>
     </row>
   </sheetData>
